--- a/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE64703-66BF-4B2F-A92A-716FBF132C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5BEFB40-BD69-4123-A544-9F3BA4C29DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{955C1D5F-D6A6-4140-B298-11BC59814765}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C6E4599-3F97-4774-B1E1-E903DBCE670A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -74,529 +74,526 @@
     <t>3,66%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -605,43 +602,40 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>7,4%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,26%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -650,187 +644,205 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>12,24%</t>
+    <t>12,29%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>19,13%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>3,9%</t>
+    <t>3,79%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>78,76%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1245,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A42514-9A09-41EA-9F24-4344EBEB6CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E6B02E-8F68-46BF-AEAB-FA1B21F4AB88}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,7 +1725,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1740,13 @@
         <v>1855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1743,13 +1755,13 @@
         <v>1334</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1884,7 +1896,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>90</v>
@@ -2051,13 +2063,13 @@
         <v>7624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2066,13 +2078,13 @@
         <v>9699</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2099,13 @@
         <v>30201</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2102,13 +2114,13 @@
         <v>11380</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2117,13 +2129,13 @@
         <v>41580</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2410,10 @@
         <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2410,13 +2422,13 @@
         <v>17928</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2425,13 +2437,13 @@
         <v>28539</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2458,13 @@
         <v>325458</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
@@ -2461,13 +2473,13 @@
         <v>351187</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>747</v>
@@ -2476,13 +2488,13 @@
         <v>676644</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2509,13 @@
         <v>49892</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -2512,13 +2524,13 @@
         <v>25437</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -2527,13 +2539,13 @@
         <v>75329</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2601,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2601,13 +2613,13 @@
         <v>39771</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -2616,13 +2628,13 @@
         <v>54835</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -2631,13 +2643,13 @@
         <v>94606</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2664,13 @@
         <v>2326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2667,13 +2679,13 @@
         <v>4056</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2682,13 +2694,13 @@
         <v>6382</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,10 +2715,10 @@
         <v>24567</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>205</v>
@@ -2838,7 +2850,7 @@
         <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>227</v>
@@ -2912,10 +2924,10 @@
         <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>323</v>
@@ -2924,13 +2936,13 @@
         <v>228426</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>499</v>
@@ -2939,13 +2951,13 @@
         <v>494626</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,10 +2972,10 @@
         <v>6417</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>238</v>
@@ -2981,7 +2993,7 @@
         <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -2990,13 +3002,13 @@
         <v>27790</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3023,13 @@
         <v>75230</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -3026,13 +3038,13 @@
         <v>65243</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>164</v>
@@ -3041,13 +3053,13 @@
         <v>140473</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3074,13 @@
         <v>1719272</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>2329</v>
@@ -3077,13 +3089,13 @@
         <v>1774323</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>3899</v>
@@ -3092,13 +3104,13 @@
         <v>3493595</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3125,13 @@
         <v>170656</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>276</v>
@@ -3128,13 +3140,13 @@
         <v>196749</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>438</v>
@@ -3143,13 +3155,13 @@
         <v>367406</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5BEFB40-BD69-4123-A544-9F3BA4C29DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD79CBC-0E0C-4746-B674-AAFC655AF143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C6E4599-3F97-4774-B1E1-E903DBCE670A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F160E7B9-B9B5-40FD-B295-90D31F34B016}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -200,7 +200,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,98%</t>
@@ -329,7 +329,7 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>15,48%</t>
@@ -464,7 +464,7 @@
     <t>9,27%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,07%</t>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E6B02E-8F68-46BF-AEAB-FA1B21F4AB88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8AFDB9-ECF6-4544-AFE0-333648B7AB12}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD79CBC-0E0C-4746-B674-AAFC655AF143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE99D281-24BC-4F89-BBDE-ABE347C23DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F160E7B9-B9B5-40FD-B295-90D31F34B016}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61944EB9-9339-4DE4-A55D-F2E54B0B58AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -74,775 +74,763 @@
     <t>3,66%</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas son peligrosas</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Creo que las vacunas no son necesarias</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>Creo que aún no tengo necesidad de ponérmela</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>El/la médico/a me indicó que no hacía falta</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas son peligrosas</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Creo que las vacunas no son necesarias</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>Creo que aún no tengo necesidad de ponérmela</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>El/la médico/a me indicó que no hacía falta</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
   </si>
   <si>
     <t>76,82%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>12,29%</t>
+    <t>12,24%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>19,13%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>4,35%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>3,79%</t>
+    <t>3,9%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>77,23%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>78,76%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>7,64%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1257,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8AFDB9-ECF6-4544-AFE0-333648B7AB12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC2FC7A-C370-4BDB-8057-CBDD468233F3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1725,7 +1713,7 @@
         <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,13 +1728,13 @@
         <v>1855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1755,13 +1743,13 @@
         <v>1334</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1896,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>90</v>
@@ -2063,13 +2051,13 @@
         <v>7624</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -2078,13 +2066,13 @@
         <v>9699</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2087,13 @@
         <v>30201</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -2114,13 +2102,13 @@
         <v>11380</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2129,13 +2117,13 @@
         <v>41580</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,10 +2398,10 @@
         <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2422,13 +2410,13 @@
         <v>17928</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -2437,13 +2425,13 @@
         <v>28539</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2446,13 @@
         <v>325458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>457</v>
@@ -2473,13 +2461,13 @@
         <v>351187</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>747</v>
@@ -2488,13 +2476,13 @@
         <v>676644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2497,13 @@
         <v>49892</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -2524,13 +2512,13 @@
         <v>25437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>76</v>
@@ -2539,13 +2527,13 @@
         <v>75329</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2589,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2601,13 @@
         <v>39771</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -2628,13 +2616,13 @@
         <v>54835</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>127</v>
@@ -2643,13 +2631,13 @@
         <v>94606</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2652,13 @@
         <v>2326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2679,13 +2667,13 @@
         <v>4056</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2694,13 +2682,13 @@
         <v>6382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,10 +2703,10 @@
         <v>24567</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>205</v>
@@ -2850,7 +2838,7 @@
         <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>227</v>
@@ -2924,10 +2912,10 @@
         <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>323</v>
@@ -2936,13 +2924,13 @@
         <v>228426</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>499</v>
@@ -2951,13 +2939,13 @@
         <v>494626</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2960,10 @@
         <v>6417</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>238</v>
@@ -2993,7 +2981,7 @@
         <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -3002,13 +2990,13 @@
         <v>27790</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3011,13 @@
         <v>75230</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>85</v>
@@ -3038,13 +3026,13 @@
         <v>65243</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="M36" s="7">
         <v>164</v>
@@ -3053,13 +3041,13 @@
         <v>140473</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3062,13 @@
         <v>1719272</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>2329</v>
@@ -3089,13 +3077,13 @@
         <v>1774323</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>3899</v>
@@ -3104,13 +3092,13 @@
         <v>3493595</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3113,13 @@
         <v>170656</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>276</v>
@@ -3140,13 +3128,13 @@
         <v>196749</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="M38" s="7">
         <v>438</v>
@@ -3155,13 +3143,13 @@
         <v>367406</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3205,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE99D281-24BC-4F89-BBDE-ABE347C23DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FDE2578-0F26-4D2B-AC7B-F4073AF20AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61944EB9-9339-4DE4-A55D-F2E54B0B58AF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DE4C1D61-7834-4BD6-BB8A-23D18C0B1597}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="229">
   <si>
     <t>Población según el motivo por el que NO se vacunaron de la gripe en 2023 (Tasa respuesta: 57,66%)</t>
   </si>
@@ -65,772 +65,661 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otros</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
   </si>
   <si>
     <t>Creo que las vacunas son peligrosas</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>Creo que las vacunas no son necesarias</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>Creo que aún no tengo necesidad de ponérmela</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>El/la médico/a me indicó que no hacía falta</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,36%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1245,8 +1134,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC2FC7A-C370-4BDB-8057-CBDD468233F3}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E11F76-5680-4FA2-BF91-F5014C1B4BAF}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1363,10 +1252,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>2418</v>
+        <v>19629</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1378,10 +1267,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>10015</v>
+        <v>26813</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1393,10 +1282,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>12433</v>
+        <v>46441</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1414,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1429,187 +1318,187 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
-        <v>160</v>
+        <v>8838</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>819</v>
+        <v>9536</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
       <c r="N6" s="7">
-        <v>979</v>
+        <v>18374</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>359</v>
       </c>
       <c r="D7" s="7">
-        <v>62479</v>
+        <v>371710</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>105</v>
+        <v>553</v>
       </c>
       <c r="I7" s="7">
-        <v>63809</v>
+        <v>346535</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>170</v>
+        <v>912</v>
       </c>
       <c r="N7" s="7">
-        <v>126288</v>
+        <v>718245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>1096</v>
+        <v>20849</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>2727</v>
+        <v>30615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="N8" s="7">
-        <v>3823</v>
+        <v>51463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,102 +1507,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>421</v>
       </c>
       <c r="D9" s="7">
-        <v>66152</v>
+        <v>422826</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>124</v>
+        <v>674</v>
       </c>
       <c r="I9" s="7">
-        <v>77370</v>
+        <v>414758</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>194</v>
+        <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>143523</v>
+        <v>837584</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>18068</v>
+        <v>308557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>18349</v>
+        <v>51941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>36417</v>
+        <v>360497</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,202 +1611,202 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1855</v>
+        <v>1943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>1334</v>
+        <v>7158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>3189</v>
+        <v>9101</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>9691</v>
+        <v>32214</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>9432</v>
+        <v>10405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>19123</v>
+        <v>42619</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>294</v>
+        <v>501</v>
       </c>
       <c r="D13" s="7">
-        <v>312929</v>
+        <v>532505</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>448</v>
+        <v>674</v>
       </c>
       <c r="I13" s="7">
-        <v>307264</v>
+        <v>471075</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>742</v>
+        <v>1175</v>
       </c>
       <c r="N13" s="7">
-        <v>620192</v>
+        <v>1003579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>20140</v>
+        <v>42161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I14" s="7">
-        <v>29612</v>
+        <v>57441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7">
-        <v>49752</v>
+        <v>99602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,102 +1815,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>351</v>
+        <v>621</v>
       </c>
       <c r="D15" s="7">
-        <v>362682</v>
+        <v>917379</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>550</v>
+        <v>872</v>
       </c>
       <c r="I15" s="7">
-        <v>365991</v>
+        <v>598020</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>901</v>
+        <v>1493</v>
       </c>
       <c r="N15" s="7">
-        <v>728672</v>
+        <v>1515399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>114944</v>
+        <v>89690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
-        <v>55487</v>
+        <v>82423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>170430</v>
+        <v>172114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,202 +1919,202 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>2075</v>
+        <v>165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>7624</v>
+        <v>7615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>9699</v>
+        <v>7780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>30201</v>
+        <v>10044</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>11380</v>
+        <v>16166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>41580</v>
+        <v>26210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>501</v>
+        <v>290</v>
       </c>
       <c r="D19" s="7">
-        <v>552372</v>
+        <v>317477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>674</v>
+        <v>457</v>
       </c>
       <c r="I19" s="7">
-        <v>522239</v>
+        <v>351384</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>1175</v>
+        <v>747</v>
       </c>
       <c r="N19" s="7">
-        <v>1074611</v>
+        <v>668861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>42874</v>
+        <v>49447</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>63682</v>
+        <v>23144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="N20" s="7">
-        <v>106556</v>
+        <v>72591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,102 +2123,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>621</v>
+        <v>413</v>
       </c>
       <c r="D21" s="7">
-        <v>742466</v>
+        <v>466824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>872</v>
+        <v>645</v>
       </c>
       <c r="I21" s="7">
-        <v>660411</v>
+        <v>480732</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>1493</v>
+        <v>1058</v>
       </c>
       <c r="N21" s="7">
-        <v>1402877</v>
+        <v>947556</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>91000</v>
+        <v>38283</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="I22" s="7">
-        <v>89741</v>
+        <v>50380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>180740</v>
+        <v>88663</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,202 +2227,202 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
+        <v>2282</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3763</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="7">
+        <v>8</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6045</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="7">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7">
-        <v>8359</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="7">
-        <v>15</v>
-      </c>
-      <c r="N23" s="7">
-        <v>8520</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>10611</v>
+        <v>22972</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>17928</v>
+        <v>22003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N24" s="7">
-        <v>28539</v>
+        <v>44975</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="D25" s="7">
-        <v>325458</v>
+        <v>454860</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
-        <v>457</v>
+        <v>645</v>
       </c>
       <c r="I25" s="7">
-        <v>351187</v>
+        <v>536221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
-        <v>747</v>
+        <v>1065</v>
       </c>
       <c r="N25" s="7">
-        <v>676644</v>
+        <v>991082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7">
-        <v>49892</v>
+        <v>53160</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="I26" s="7">
-        <v>25437</v>
+        <v>67185</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="N26" s="7">
-        <v>75329</v>
+        <v>120345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,102 +2431,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>413</v>
+        <v>541</v>
       </c>
       <c r="D27" s="7">
-        <v>477121</v>
+        <v>571557</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>645</v>
+        <v>854</v>
       </c>
       <c r="I27" s="7">
-        <v>492652</v>
+        <v>679551</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1058</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>969773</v>
+        <v>1251109</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="D28" s="7">
-        <v>39771</v>
+        <v>456159</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
-        <v>87</v>
+        <v>323</v>
       </c>
       <c r="I28" s="7">
-        <v>54835</v>
+        <v>211556</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
-        <v>127</v>
+        <v>499</v>
       </c>
       <c r="N28" s="7">
-        <v>94606</v>
+        <v>667715</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,202 +2535,202 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29" s="7">
-        <v>2326</v>
+        <v>6191</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>4056</v>
+        <v>19795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N29" s="7">
-        <v>6382</v>
+        <v>25986</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D30" s="7">
-        <v>24567</v>
+        <v>74068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I30" s="7">
-        <v>25685</v>
+        <v>58110</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="M30" s="7">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="N30" s="7">
-        <v>50252</v>
+        <v>132178</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>420</v>
+        <v>1570</v>
       </c>
       <c r="D31" s="7">
-        <v>466035</v>
+        <v>1676552</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
-        <v>645</v>
+        <v>2329</v>
       </c>
       <c r="I31" s="7">
-        <v>529825</v>
+        <v>1705215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
-        <v>1065</v>
+        <v>3899</v>
       </c>
       <c r="N31" s="7">
-        <v>995859</v>
+        <v>3381767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="D32" s="7">
-        <v>56655</v>
+        <v>165617</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="I32" s="7">
-        <v>75291</v>
+        <v>178385</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="N32" s="7">
-        <v>131946</v>
+        <v>344002</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,370 +2739,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>541</v>
+        <v>1996</v>
       </c>
       <c r="D33" s="7">
-        <v>589354</v>
+        <v>2378587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>854</v>
+        <v>3045</v>
       </c>
       <c r="I33" s="7">
-        <v>689691</v>
+        <v>2173061</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>1395</v>
+        <v>5041</v>
       </c>
       <c r="N33" s="7">
-        <v>1279045</v>
+        <v>4551648</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>176</v>
-      </c>
-      <c r="D34" s="7">
-        <v>266200</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" s="7">
-        <v>323</v>
-      </c>
-      <c r="I34" s="7">
-        <v>228426</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M34" s="7">
-        <v>499</v>
-      </c>
-      <c r="N34" s="7">
-        <v>494626</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7">
-        <v>6417</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H35" s="7">
-        <v>32</v>
-      </c>
-      <c r="I35" s="7">
-        <v>21373</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M35" s="7">
-        <v>41</v>
-      </c>
-      <c r="N35" s="7">
-        <v>27790</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="7">
-        <v>79</v>
-      </c>
-      <c r="D36" s="7">
-        <v>75230</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H36" s="7">
-        <v>85</v>
-      </c>
-      <c r="I36" s="7">
-        <v>65243</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M36" s="7">
-        <v>164</v>
-      </c>
-      <c r="N36" s="7">
-        <v>140473</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1570</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1719272</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2329</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1774323</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M37" s="7">
-        <v>3899</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3493595</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="7">
-        <v>162</v>
-      </c>
-      <c r="D38" s="7">
-        <v>170656</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="7">
-        <v>276</v>
-      </c>
-      <c r="I38" s="7">
-        <v>196749</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="M38" s="7">
-        <v>438</v>
-      </c>
-      <c r="N38" s="7">
-        <v>367406</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1996</v>
-      </c>
-      <c r="D39" s="7">
-        <v>2237775</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="7">
-        <v>3045</v>
-      </c>
-      <c r="I39" s="7">
-        <v>2286115</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M39" s="7">
-        <v>5041</v>
-      </c>
-      <c r="N39" s="7">
-        <v>4523890</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>265</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
